--- a/assets/excel/Data Kota.xlsx
+++ b/assets/excel/Data Kota.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
   <si>
     <t>ID</t>
   </si>
@@ -23,12 +23,6 @@
     <t>Nama Kota</t>
   </si>
   <si>
-    <t>Malang</t>
-  </si>
-  <si>
-    <t>Nganjuk</t>
-  </si>
-  <si>
     <t>Blitar</t>
   </si>
   <si>
@@ -42,6 +36,9 @@
   </si>
   <si>
     <t>Paris</t>
+  </si>
+  <si>
+    <t>Mamuju</t>
   </si>
 </sst>
 </file>
@@ -398,7 +395,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -406,7 +403,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -414,7 +411,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -422,7 +419,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
@@ -430,7 +427,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
@@ -438,7 +435,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
@@ -446,10 +443,10 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
